--- a/Files_Replicate_Analysis/pub_plots_tabs/TA447_PEM_OS_AUC.xlsx
+++ b/Files_Replicate_Analysis/pub_plots_tabs/TA447_PEM_OS_AUC.xlsx
@@ -29,58 +29,58 @@
     <t>AUC_diff2</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
+    <t>Log-Normal</t>
+  </si>
+  <si>
     <t>Gompertz</t>
   </si>
   <si>
-    <t>Log-Normal</t>
-  </si>
-  <si>
     <t>Royston-Parmar 1 knot</t>
   </si>
   <si>
+    <t>Log-Logistic</t>
+  </si>
+  <si>
+    <t>Generalized Gamma</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Weibull</t>
+  </si>
+  <si>
     <t>Piecewise Exponential</t>
-  </si>
-  <si>
-    <t>Log-Logistic</t>
-  </si>
-  <si>
-    <t>Generalized Gamma</t>
-  </si>
-  <si>
-    <t>Weibull</t>
-  </si>
-  <si>
-    <t>Exponential</t>
   </si>
   <si>
     <t>Gamma</t>
@@ -163,16 +163,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>390.12</v>
+        <v>387.31</v>
       </c>
       <c r="D2" t="n">
-        <v>21.44</v>
+        <v>21.47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="3">
@@ -183,16 +183,16 @@
         <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>387.44</v>
+        <v>390.15</v>
       </c>
       <c r="D3" t="n">
-        <v>21.45</v>
+        <v>21.49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -203,10 +203,10 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>388.95</v>
+        <v>388.78</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5</v>
+        <v>21.51</v>
       </c>
       <c r="E4" t="n">
         <v>0.79</v>
@@ -223,16 +223,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>389.96</v>
+        <v>389.4</v>
       </c>
       <c r="D5" t="n">
-        <v>21.02</v>
+        <v>20.95</v>
       </c>
       <c r="E5" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F5" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="6">
@@ -243,16 +243,16 @@
         <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>389.5</v>
+        <v>389.48</v>
       </c>
       <c r="D6" t="n">
-        <v>20.95</v>
+        <v>20.78</v>
       </c>
       <c r="E6" t="n">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -263,16 +263,16 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>389.84</v>
+        <v>389.1</v>
       </c>
       <c r="D7" t="n">
-        <v>20.68</v>
+        <v>20.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.94</v>
+        <v>1.03</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -283,16 +283,16 @@
         <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>390.5</v>
+        <v>390.79</v>
       </c>
       <c r="D8" t="n">
-        <v>20.53</v>
+        <v>20.49</v>
       </c>
       <c r="E8" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9">
@@ -303,7 +303,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>389.21</v>
+        <v>389.01</v>
       </c>
       <c r="D9" t="n">
         <v>20.44</v>
@@ -323,16 +323,16 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>390.63</v>
+        <v>390.68</v>
       </c>
       <c r="D10" t="n">
-        <v>20.39</v>
+        <v>20.4</v>
       </c>
       <c r="E10" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="F10" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11">
